--- a/tests/output/twr_daily_correct.xlsx
+++ b/tests/output/twr_daily_correct.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -64,10 +64,13 @@
     <t>nav_today</t>
   </si>
   <si>
-    <t>nav_prev</t>
+    <t>shares_today</t>
   </si>
   <si>
-    <t>shares_today</t>
+    <t>delta_cf</t>
+  </si>
+  <si>
+    <t>nav_prev</t>
   </si>
   <si>
     <t>shares_prev</t>
@@ -242,12 +245,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -568,7 +577,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,16 +601,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -610,96 +619,105 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,10 +1031,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1027,9 +1045,14 @@
     <col min="7" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="9.375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="10.375" style="2" customWidth="1"/>
+    <col min="12" max="14" width="13.75" customWidth="1"/>
+    <col min="15" max="15" width="12.125" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,33 +1080,42 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1">
+      <c r="T1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="3">
         <v>45658</v>
       </c>
       <c r="B2">
@@ -1110,34 +1142,43 @@
       <c r="I2">
         <v>3.9</v>
       </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J47" si="0">B2+C2+D2*G2+E2*H2*0.92+F2*I2</f>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J47" si="0">B2+C2*0.92+D2*G2+E2*H2*0.92+F2*I2</f>
         <v>300000</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
+        <v>300000</v>
+      </c>
+      <c r="M2">
+        <v>300000</v>
+      </c>
+      <c r="N2" s="4">
         <v>1</v>
       </c>
-      <c r="M2" s="2">
-        <v>300000</v>
-      </c>
-      <c r="N2" s="2">
-        <v>300000</v>
-      </c>
-      <c r="O2" s="2">
-        <v>300000</v>
-      </c>
-      <c r="P2" s="2">
-        <v>300000</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1">
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R2" s="5">
+        <v>300000</v>
+      </c>
+      <c r="S2" s="4">
+        <v>300000</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="3">
         <v>45659</v>
       </c>
       <c r="B3">
@@ -1164,34 +1205,45 @@
       <c r="I3">
         <v>3.9</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
       <c r="K3" s="2">
+        <f>(J3-M3)/L2</f>
         <v>1</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
+        <f>L2+M3/K3</f>
+        <v>300000</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
         <v>1</v>
       </c>
-      <c r="M3" s="2">
-        <v>300000</v>
-      </c>
-      <c r="N3" s="2">
-        <v>300000</v>
-      </c>
-      <c r="O3" s="2">
-        <v>300000</v>
-      </c>
-      <c r="P3" s="2">
-        <v>300000</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1">
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R3" s="5">
+        <v>300000</v>
+      </c>
+      <c r="S3" s="4">
+        <v>300000</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="3">
         <v>45660</v>
       </c>
       <c r="B4">
@@ -1218,34 +1270,45 @@
       <c r="I4">
         <v>3.9</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
       <c r="K4" s="2">
+        <f t="shared" ref="K4:K47" si="1">(J4-M4)/L3</f>
         <v>1</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
+        <f t="shared" ref="L4:L47" si="2">L3+M4/K4</f>
+        <v>300000</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
         <v>1</v>
       </c>
-      <c r="M4" s="2">
-        <v>300000</v>
-      </c>
-      <c r="N4" s="2">
-        <v>300000</v>
-      </c>
-      <c r="O4" s="2">
-        <v>300000</v>
-      </c>
-      <c r="P4" s="2">
-        <v>300000</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1">
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R4" s="5">
+        <v>300000</v>
+      </c>
+      <c r="S4" s="4">
+        <v>300000</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="3">
         <v>45661</v>
       </c>
       <c r="B5">
@@ -1272,34 +1335,45 @@
       <c r="I5">
         <v>3.9</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
       <c r="K5" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
         <v>1</v>
       </c>
-      <c r="M5" s="2">
-        <v>300000</v>
-      </c>
-      <c r="N5" s="2">
-        <v>300000</v>
-      </c>
-      <c r="O5" s="2">
-        <v>300000</v>
-      </c>
-      <c r="P5" s="2">
-        <v>300000</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1">
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R5" s="5">
+        <v>300000</v>
+      </c>
+      <c r="S5" s="4">
+        <v>300000</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="3">
         <v>45662</v>
       </c>
       <c r="B6">
@@ -1318,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>380</v>
@@ -1326,34 +1400,45 @@
       <c r="I6">
         <v>3.9</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>304800</v>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>299800</v>
       </c>
       <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.999333333333333</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.999333</v>
       </c>
-      <c r="L6" s="2">
+      <c r="O6" s="4">
         <v>1</v>
       </c>
-      <c r="M6" s="2">
-        <v>300000</v>
-      </c>
-      <c r="N6" s="2">
-        <v>300000</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="P6" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R6" s="5">
         <v>299800</v>
       </c>
-      <c r="P6" s="2">
-        <v>300000</v>
-      </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="4">
+        <v>300000</v>
+      </c>
+      <c r="T6" s="4">
         <v>-0.0007</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1">
+    <row r="7" spans="1:20">
+      <c r="A7" s="3">
         <v>45663</v>
       </c>
       <c r="B7">
@@ -1372,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>380</v>
@@ -1380,34 +1465,45 @@
       <c r="I7">
         <v>3.9</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>304800</v>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>299800</v>
       </c>
       <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.999333333333333</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.999333</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="4">
         <v>0.999333</v>
       </c>
-      <c r="M7" s="2">
-        <v>300000</v>
-      </c>
-      <c r="N7" s="2">
-        <v>300000</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="P7" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R7" s="5">
         <v>299800</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="4">
         <v>299800</v>
       </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1">
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="3">
         <v>45664</v>
       </c>
       <c r="B8">
@@ -1426,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H8">
         <v>380</v>
@@ -1434,34 +1530,45 @@
       <c r="I8">
         <v>3.9</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>304800</v>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>299800</v>
       </c>
       <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.999333333333333</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
         <v>0.999333</v>
       </c>
-      <c r="L8" s="2">
+      <c r="O8" s="4">
         <v>0.999333</v>
       </c>
-      <c r="M8" s="2">
-        <v>300000</v>
-      </c>
-      <c r="N8" s="2">
-        <v>300000</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="P8" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R8" s="5">
         <v>299800</v>
       </c>
-      <c r="P8" s="2">
+      <c r="S8" s="4">
         <v>299800</v>
       </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1">
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="3">
         <v>45665</v>
       </c>
       <c r="B9">
@@ -1480,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H9">
         <v>380</v>
@@ -1488,34 +1595,45 @@
       <c r="I9">
         <v>3.9</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>304800</v>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>299800</v>
       </c>
       <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.999333333333333</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
         <v>0.999333</v>
       </c>
-      <c r="L9" s="2">
+      <c r="O9" s="4">
         <v>0.999333</v>
       </c>
-      <c r="M9" s="2">
-        <v>300000</v>
-      </c>
-      <c r="N9" s="2">
-        <v>300000</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="P9" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R9" s="5">
         <v>299800</v>
       </c>
-      <c r="P9" s="2">
+      <c r="S9" s="4">
         <v>299800</v>
       </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1">
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="3">
         <v>45666</v>
       </c>
       <c r="B10">
@@ -1535,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>380</v>
@@ -1543,34 +1661,45 @@
       <c r="I10">
         <v>3.9</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>320800</v>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>299800</v>
       </c>
       <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.999333333333333</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
         <v>0.999333</v>
       </c>
-      <c r="L10" s="2">
+      <c r="O10" s="4">
         <v>0.999333</v>
       </c>
-      <c r="M10" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N10" s="2">
-        <v>300000</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="P10" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R10" s="5">
         <v>299800</v>
       </c>
-      <c r="P10" s="2">
+      <c r="S10" s="4">
         <v>299800</v>
       </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1">
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="3">
         <v>45667</v>
       </c>
       <c r="B11">
@@ -1597,34 +1726,45 @@
       <c r="I11">
         <v>3.9</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>320800</v>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K11" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O11" s="4">
         <v>0.999333</v>
       </c>
-      <c r="M11" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N11" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O11" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="P11" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R11" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S11" s="4">
         <v>299800</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="T11" s="4">
         <v>0.0167</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1">
+    <row r="12" spans="1:20">
+      <c r="A12" s="3">
         <v>45668</v>
       </c>
       <c r="B12">
@@ -1652,34 +1792,45 @@
       <c r="I12">
         <v>3.9</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K12" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M12" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N12" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O12" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P12" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P12" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R12" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S12" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="3">
         <v>45669</v>
       </c>
       <c r="B13">
@@ -1706,34 +1857,45 @@
       <c r="I13">
         <v>3.9</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K13" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M13" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N13" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O13" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P13" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P13" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R13" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S13" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="3">
         <v>45670</v>
       </c>
       <c r="B14">
@@ -1760,34 +1922,45 @@
       <c r="I14">
         <v>3.9</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K14" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M14" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N14" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O14" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P14" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P14" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R14" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S14" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="3">
         <v>45671</v>
       </c>
       <c r="B15">
@@ -1814,34 +1987,45 @@
       <c r="I15">
         <v>3.9</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K15" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M15" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N15" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O15" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P15" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P15" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R15" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S15" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="3">
         <v>45672</v>
       </c>
       <c r="B16">
@@ -1868,34 +2052,45 @@
       <c r="I16">
         <v>3.9</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K16" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M16" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N16" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O16" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P16" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P16" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R16" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S16" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="3">
         <v>45673</v>
       </c>
       <c r="B17">
@@ -1922,34 +2117,45 @@
       <c r="I17">
         <v>3.9</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K17" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M17" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N17" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O17" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P17" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P17" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R17" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S17" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="3">
         <v>45674</v>
       </c>
       <c r="B18">
@@ -1976,34 +2182,45 @@
       <c r="I18">
         <v>3.9</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K18" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M18" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N18" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O18" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P18" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P18" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R18" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S18" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="3">
         <v>45675</v>
       </c>
       <c r="B19">
@@ -2030,34 +2247,45 @@
       <c r="I19">
         <v>3.9</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K19" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M19" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N19" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O19" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P19" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P19" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R19" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S19" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="3">
         <v>45676</v>
       </c>
       <c r="B20">
@@ -2084,34 +2312,45 @@
       <c r="I20">
         <v>3.9</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K20" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M20" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N20" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O20" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P20" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P20" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R20" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S20" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="3">
         <v>45677</v>
       </c>
       <c r="B21">
@@ -2138,34 +2377,45 @@
       <c r="I21">
         <v>3.9</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K21" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M21" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N21" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O21" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P21" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P21" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R21" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S21" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="3">
         <v>45678</v>
       </c>
       <c r="B22">
@@ -2192,34 +2442,45 @@
       <c r="I22">
         <v>3.9</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K22" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M22" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N22" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O22" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P22" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P22" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R22" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S22" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="3">
         <v>45679</v>
       </c>
       <c r="B23">
@@ -2246,34 +2507,45 @@
       <c r="I23">
         <v>3.9</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K23" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M23" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N23" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O23" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P23" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P23" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R23" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S23" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="3">
         <v>45680</v>
       </c>
       <c r="B24">
@@ -2300,34 +2572,45 @@
       <c r="I24">
         <v>3.9</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K24" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M24" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N24" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O24" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P24" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P24" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R24" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S24" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="3">
         <v>45681</v>
       </c>
       <c r="B25">
@@ -2354,34 +2637,45 @@
       <c r="I25">
         <v>3.9</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K25" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M25" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N25" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O25" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P25" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P25" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R25" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S25" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="3">
         <v>45682</v>
       </c>
       <c r="B26">
@@ -2408,34 +2702,45 @@
       <c r="I26">
         <v>3.9</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K26" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M26" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N26" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O26" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P26" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P26" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R26" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S26" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="3">
         <v>45683</v>
       </c>
       <c r="B27">
@@ -2462,34 +2767,45 @@
       <c r="I27">
         <v>3.9</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K27" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M27" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N27" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O27" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P27" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P27" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R27" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S27" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="3">
         <v>45684</v>
       </c>
       <c r="B28">
@@ -2516,34 +2832,45 @@
       <c r="I28">
         <v>3.9</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J28" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K28" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M28" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N28" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O28" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P28" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P28" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R28" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S28" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="3">
         <v>45685</v>
       </c>
       <c r="B29">
@@ -2570,34 +2897,45 @@
       <c r="I29">
         <v>3.9</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J29" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K29" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M29" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N29" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O29" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P29" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O29" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P29" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R29" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S29" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="3">
         <v>45686</v>
       </c>
       <c r="B30">
@@ -2624,34 +2962,45 @@
       <c r="I30">
         <v>3.9</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J30" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K30" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M30" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N30" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O30" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P30" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P30" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R30" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S30" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="3">
         <v>45687</v>
       </c>
       <c r="B31">
@@ -2678,34 +3027,45 @@
       <c r="I31">
         <v>3.9</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J31" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K31" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M31" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N31" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O31" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P31" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P31" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R31" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S31" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="3">
         <v>45688</v>
       </c>
       <c r="B32">
@@ -2732,38 +3092,49 @@
       <c r="I32">
         <v>3.9</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J32" s="1">
+        <f t="shared" si="0"/>
+        <v>304800</v>
       </c>
       <c r="K32" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M32" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N32" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O32" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P32" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O32" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P32" s="4">
+        <v>300000</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R32" s="5">
+        <v>304800</v>
+      </c>
+      <c r="S32" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="3">
         <v>45689</v>
       </c>
       <c r="B33">
-        <v>80800</v>
+        <v>180800</v>
       </c>
       <c r="C33">
         <v>10000</v>
@@ -2786,38 +3157,49 @@
       <c r="I33">
         <v>3.9</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J33" s="1">
+        <f t="shared" si="0"/>
+        <v>404800</v>
       </c>
       <c r="K33" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M33" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N33" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O33" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P33" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>398425.196850394</v>
+      </c>
+      <c r="M33">
+        <v>100000</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P33" s="4">
+        <v>398425.2</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>300000</v>
+      </c>
+      <c r="R33" s="5">
+        <v>404800</v>
+      </c>
+      <c r="S33" s="4">
+        <v>304800</v>
+      </c>
+      <c r="T33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="3">
         <v>45690</v>
       </c>
       <c r="B34">
-        <v>80800</v>
+        <v>180800</v>
       </c>
       <c r="C34">
         <v>10000</v>
@@ -2840,38 +3222,49 @@
       <c r="I34">
         <v>3.9</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J34" s="1">
+        <f t="shared" si="0"/>
+        <v>404800</v>
       </c>
       <c r="K34" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M34" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N34" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O34" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P34" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>398425.196850394</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O34" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P34" s="4">
+        <v>398425.2</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>398425.2</v>
+      </c>
+      <c r="R34" s="5">
+        <v>404800</v>
+      </c>
+      <c r="S34" s="4">
+        <v>404800</v>
+      </c>
+      <c r="T34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="3">
         <v>45691</v>
       </c>
       <c r="B35">
-        <v>80800</v>
+        <v>180800</v>
       </c>
       <c r="C35">
         <v>10000</v>
@@ -2894,38 +3287,49 @@
       <c r="I35">
         <v>3.9</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J35" s="1">
+        <f t="shared" si="0"/>
+        <v>404800</v>
       </c>
       <c r="K35" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M35" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N35" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O35" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P35" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>398425.196850394</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O35" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P35" s="4">
+        <v>398425.2</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>398425.2</v>
+      </c>
+      <c r="R35" s="5">
+        <v>404800</v>
+      </c>
+      <c r="S35" s="4">
+        <v>404800</v>
+      </c>
+      <c r="T35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="3">
         <v>45692</v>
       </c>
       <c r="B36">
-        <v>80800</v>
+        <v>180800</v>
       </c>
       <c r="C36">
         <v>10000</v>
@@ -2948,38 +3352,49 @@
       <c r="I36">
         <v>3.9</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J36" s="1">
+        <f t="shared" si="0"/>
+        <v>404800</v>
       </c>
       <c r="K36" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M36" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N36" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O36" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P36" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>398425.196850394</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O36" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P36" s="4">
+        <v>398425.2</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>398425.2</v>
+      </c>
+      <c r="R36" s="5">
+        <v>404800</v>
+      </c>
+      <c r="S36" s="4">
+        <v>404800</v>
+      </c>
+      <c r="T36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="3">
         <v>45693</v>
       </c>
       <c r="B37">
-        <v>80800</v>
+        <v>180800</v>
       </c>
       <c r="C37">
         <v>10000</v>
@@ -3002,38 +3417,49 @@
       <c r="I37">
         <v>3.9</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J37" s="1">
+        <f t="shared" si="0"/>
+        <v>404800</v>
       </c>
       <c r="K37" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M37" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N37" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O37" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P37" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>398425.196850394</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O37" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P37" s="4">
+        <v>398425.2</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>398425.2</v>
+      </c>
+      <c r="R37" s="5">
+        <v>404800</v>
+      </c>
+      <c r="S37" s="4">
+        <v>404800</v>
+      </c>
+      <c r="T37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="3">
         <v>45694</v>
       </c>
       <c r="B38">
-        <v>80800</v>
+        <v>180800</v>
       </c>
       <c r="C38">
         <v>10000</v>
@@ -3056,38 +3482,50 @@
       <c r="I38">
         <v>3.9</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
-        <v>305600</v>
+      <c r="J38" s="1">
+        <f t="shared" si="0"/>
+        <v>404800</v>
       </c>
       <c r="K38" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M38" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N38" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O38" s="2">
-        <v>304800</v>
-      </c>
-      <c r="P38" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>1.016</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>398425.196850394</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="O38" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P38" s="4">
+        <v>398425.2</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>398425.2</v>
+      </c>
+      <c r="R38" s="5">
+        <v>404800</v>
+      </c>
+      <c r="S38" s="4">
+        <v>404800</v>
+      </c>
+      <c r="T38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="3">
         <v>45695</v>
       </c>
       <c r="B39">
-        <v>80900</v>
+        <f>B38+100</f>
+        <v>180900</v>
       </c>
       <c r="C39">
         <v>10000</v>
@@ -3110,41 +3548,52 @@
       <c r="I39">
         <v>3.9</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
-        <v>310700</v>
+      <c r="J39" s="1">
+        <f t="shared" si="0"/>
+        <v>409900</v>
       </c>
       <c r="K39" s="2">
-        <v>0.980663</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0.964524</v>
-      </c>
-      <c r="M39" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N39" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O39" s="2">
-        <v>309900</v>
-      </c>
-      <c r="P39" s="2">
-        <v>304800</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0.0167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>1.02880039525692</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>398425.196850394</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1.0288</v>
+      </c>
+      <c r="O39" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="P39" s="4">
+        <v>398425.2</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>398425.2</v>
+      </c>
+      <c r="R39" s="5">
+        <v>409900</v>
+      </c>
+      <c r="S39" s="4">
+        <v>404800</v>
+      </c>
+      <c r="T39" s="4">
+        <v>0.0126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="3">
         <v>45696</v>
       </c>
       <c r="B40">
-        <v>80900</v>
+        <v>180900</v>
       </c>
       <c r="C40">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>1000</v>
@@ -3164,41 +3613,52 @@
       <c r="I40">
         <v>3.9</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="0"/>
-        <v>310700</v>
+      <c r="J40" s="1">
+        <f t="shared" si="0"/>
+        <v>400700</v>
       </c>
       <c r="K40" s="2">
-        <v>0.980663</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0.980663</v>
-      </c>
-      <c r="M40" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N40" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O40" s="2">
-        <v>309900</v>
-      </c>
-      <c r="P40" s="2">
-        <v>309900</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="1">
+        <f t="shared" si="1"/>
+        <v>1.02880039525692</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>389482.743054288</v>
+      </c>
+      <c r="M40">
+        <v>-9200</v>
+      </c>
+      <c r="N40" s="4">
+        <v>1.0288</v>
+      </c>
+      <c r="O40" s="4">
+        <v>1.0288</v>
+      </c>
+      <c r="P40" s="4">
+        <v>389482.74</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>398425.2</v>
+      </c>
+      <c r="R40" s="5">
+        <v>400700</v>
+      </c>
+      <c r="S40" s="4">
+        <v>409900</v>
+      </c>
+      <c r="T40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="3">
         <v>45697</v>
       </c>
       <c r="B41">
-        <v>80900</v>
+        <v>180900</v>
       </c>
       <c r="C41">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>1000</v>
@@ -3218,42 +3678,53 @@
       <c r="I41">
         <v>3.9</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="0"/>
-        <v>310700</v>
+      <c r="J41" s="1">
+        <f t="shared" si="0"/>
+        <v>400700</v>
       </c>
       <c r="K41" s="2">
-        <v>0.980663</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0.980663</v>
-      </c>
-      <c r="M41" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N41" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O41" s="2">
-        <v>309900</v>
-      </c>
-      <c r="P41" s="2">
-        <v>309900</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>1.02880039525692</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>389482.743054288</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1.0288</v>
+      </c>
+      <c r="O41" s="4">
+        <v>1.0288</v>
+      </c>
+      <c r="P41" s="4">
+        <v>389482.74</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>389482.74</v>
+      </c>
+      <c r="R41" s="5">
+        <v>400700</v>
+      </c>
+      <c r="S41" s="4">
+        <v>400700</v>
+      </c>
+      <c r="T41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="3">
         <v>45698</v>
       </c>
       <c r="B42">
         <f>B41+48000</f>
-        <v>128900</v>
+        <v>228900</v>
       </c>
       <c r="C42">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3273,42 +3744,53 @@
       <c r="I42">
         <v>3.9</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="0"/>
-        <v>313700</v>
+      <c r="J42" s="1">
+        <f t="shared" si="0"/>
+        <v>403700</v>
       </c>
       <c r="K42" s="2">
-        <v>0.990156</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0.980663</v>
-      </c>
-      <c r="M42" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N42" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O42" s="2">
-        <v>312900</v>
-      </c>
-      <c r="P42" s="2">
-        <v>309900</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0.0097</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="1">
+        <f t="shared" si="1"/>
+        <v>1.03650291880513</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>389482.743054288</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1.036503</v>
+      </c>
+      <c r="O42" s="4">
+        <v>1.0288</v>
+      </c>
+      <c r="P42" s="4">
+        <v>389482.74</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>389482.74</v>
+      </c>
+      <c r="R42" s="5">
+        <v>403700</v>
+      </c>
+      <c r="S42" s="4">
+        <v>400700</v>
+      </c>
+      <c r="T42" s="4">
+        <v>0.0075</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="3">
         <v>45699</v>
       </c>
       <c r="B43">
-        <v>128900</v>
+        <v>228900</v>
       </c>
       <c r="C43">
         <f>C42+40000</f>
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3328,42 +3810,53 @@
       <c r="I43">
         <v>3.9</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="0"/>
-        <v>344500</v>
+      <c r="J43" s="1">
+        <f t="shared" si="0"/>
+        <v>431300</v>
       </c>
       <c r="K43" s="2">
-        <v>1.077495</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0.990156</v>
-      </c>
-      <c r="M43" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N43" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O43" s="2">
-        <v>340500</v>
-      </c>
-      <c r="P43" s="2">
-        <v>312900</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0.0882</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>1.10736613544874</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>389482.743054288</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <v>1.107366</v>
+      </c>
+      <c r="O43" s="4">
+        <v>1.036503</v>
+      </c>
+      <c r="P43" s="4">
+        <v>389482.74</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>389482.74</v>
+      </c>
+      <c r="R43" s="5">
+        <v>431300</v>
+      </c>
+      <c r="S43" s="4">
+        <v>403700</v>
+      </c>
+      <c r="T43" s="4">
+        <v>0.0684</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="3">
         <v>45700</v>
       </c>
       <c r="B44">
         <f>B43-38000</f>
-        <v>90900</v>
+        <v>190900</v>
       </c>
       <c r="C44">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3383,41 +3876,52 @@
       <c r="I44">
         <v>3.9</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="0"/>
-        <v>345500</v>
+      <c r="J44" s="1">
+        <f t="shared" si="0"/>
+        <v>432300</v>
       </c>
       <c r="K44" s="2">
-        <v>1.08066</v>
-      </c>
-      <c r="L44" s="2">
-        <v>1.077495</v>
-      </c>
-      <c r="M44" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N44" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O44" s="2">
-        <v>341500</v>
-      </c>
-      <c r="P44" s="2">
-        <v>340500</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0.0029</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>1.10993364329814</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>389482.743054288</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>1.109934</v>
+      </c>
+      <c r="O44" s="4">
+        <v>1.107366</v>
+      </c>
+      <c r="P44" s="4">
+        <v>389482.74</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>389482.74</v>
+      </c>
+      <c r="R44" s="5">
+        <v>432300</v>
+      </c>
+      <c r="S44" s="4">
+        <v>431300</v>
+      </c>
+      <c r="T44" s="4">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="3">
         <v>45701</v>
       </c>
       <c r="B45">
-        <v>90900</v>
+        <v>190900</v>
       </c>
       <c r="C45">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3437,41 +3941,52 @@
       <c r="I45">
         <v>3.9</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="0"/>
-        <v>345500</v>
+      <c r="J45" s="1">
+        <f t="shared" si="0"/>
+        <v>432300</v>
       </c>
       <c r="K45" s="2">
-        <v>1.08066</v>
-      </c>
-      <c r="L45" s="2">
-        <v>1.08066</v>
-      </c>
-      <c r="M45" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N45" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O45" s="2">
-        <v>341500</v>
-      </c>
-      <c r="P45" s="2">
-        <v>341500</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>1.10993364329814</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>389482.743054288</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>1.109934</v>
+      </c>
+      <c r="O45" s="4">
+        <v>1.109934</v>
+      </c>
+      <c r="P45" s="4">
+        <v>389482.74</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>389482.74</v>
+      </c>
+      <c r="R45" s="5">
+        <v>432300</v>
+      </c>
+      <c r="S45" s="4">
+        <v>432300</v>
+      </c>
+      <c r="T45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="3">
         <v>45702</v>
       </c>
       <c r="B46">
-        <v>90900</v>
+        <v>190900</v>
       </c>
       <c r="C46">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3491,41 +4006,52 @@
       <c r="I46">
         <v>3.9</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="0"/>
-        <v>345500</v>
+      <c r="J46" s="1">
+        <f t="shared" si="0"/>
+        <v>432300</v>
       </c>
       <c r="K46" s="2">
-        <v>1.08066</v>
-      </c>
-      <c r="L46" s="2">
-        <v>1.08066</v>
-      </c>
-      <c r="M46" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N46" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O46" s="2">
-        <v>341500</v>
-      </c>
-      <c r="P46" s="2">
-        <v>341500</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>1.10993364329814</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>389482.743054288</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <v>1.109934</v>
+      </c>
+      <c r="O46" s="4">
+        <v>1.109934</v>
+      </c>
+      <c r="P46" s="4">
+        <v>389482.74</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>389482.74</v>
+      </c>
+      <c r="R46" s="5">
+        <v>432300</v>
+      </c>
+      <c r="S46" s="4">
+        <v>432300</v>
+      </c>
+      <c r="T46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="3">
         <v>45703</v>
       </c>
       <c r="B47">
-        <v>90900</v>
+        <v>190900</v>
       </c>
       <c r="C47">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3545,29 +4071,40 @@
       <c r="I47">
         <v>3.9</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="0"/>
-        <v>345500</v>
+      <c r="J47" s="1">
+        <f t="shared" si="0"/>
+        <v>432300</v>
       </c>
       <c r="K47" s="2">
-        <v>1.08066</v>
-      </c>
-      <c r="L47" s="2">
-        <v>1.08066</v>
-      </c>
-      <c r="M47" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="N47" s="2">
-        <v>316010.67</v>
-      </c>
-      <c r="O47" s="2">
-        <v>341500</v>
-      </c>
-      <c r="P47" s="2">
-        <v>341500</v>
-      </c>
-      <c r="Q47" s="2">
+        <f t="shared" si="1"/>
+        <v>1.10993364329814</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>389482.743054288</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
+        <v>1.109934</v>
+      </c>
+      <c r="O47" s="4">
+        <v>1.109934</v>
+      </c>
+      <c r="P47" s="4">
+        <v>389482.74</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>389482.74</v>
+      </c>
+      <c r="R47" s="5">
+        <v>432300</v>
+      </c>
+      <c r="S47" s="4">
+        <v>432300</v>
+      </c>
+      <c r="T47" s="4">
         <v>0</v>
       </c>
     </row>

--- a/tests/output/twr_daily_correct.xlsx
+++ b/tests/output/twr_daily_correct.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12975"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -85,19 +72,62 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,6 +144,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,21 +191,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,28 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,13 +262,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,19 +328,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,18 +376,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -344,31 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,19 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,12 +436,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -451,6 +453,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,21 +500,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,219 +558,231 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1031,59 +1045,67 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
+    <col min="1" max="1" width="10.375" style="2"/>
+    <col min="2" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="11" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="9.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
     <col min="11" max="11" width="10.375" style="2" customWidth="1"/>
-    <col min="12" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="12.125" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1"/>
+    <col min="12" max="14" width="13.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2"/>
+    <col min="18" max="18" width="9" style="4"/>
+    <col min="19" max="19" width="9" style="2"/>
+    <col min="20" max="20" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1092,61 +1114,61 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="3">
+    <row r="2" s="1" customFormat="1" spans="1:20">
+      <c r="A2" s="6">
         <v>45658</v>
       </c>
-      <c r="B2">
-        <v>300000</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="B2" s="5">
+        <v>300000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
         <v>35</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>380</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <v>3.9</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="8">
         <f t="shared" ref="J2:J47" si="0">B2+C2*0.92+D2*G2+E2*H2*0.92+F2*I2</f>
         <v>300000</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
@@ -1155,61 +1177,61 @@
       <c r="M2">
         <v>300000</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="P2" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R2" s="5">
-        <v>300000</v>
-      </c>
-      <c r="S2" s="4">
-        <v>300000</v>
-      </c>
-      <c r="T2" s="4">
+      <c r="P2">
+        <v>300000</v>
+      </c>
+      <c r="Q2">
+        <v>300000</v>
+      </c>
+      <c r="R2" s="8">
+        <v>300000</v>
+      </c>
+      <c r="S2">
+        <v>300000</v>
+      </c>
+      <c r="T2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>45659</v>
       </c>
-      <c r="B3">
-        <v>300000</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="B3" s="5">
+        <v>300000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <v>35</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>380</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>3.9</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="8">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <f>(J3-M3)/L2</f>
         <v>1</v>
       </c>
@@ -1220,61 +1242,61 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R3" s="5">
-        <v>300000</v>
-      </c>
-      <c r="S3" s="4">
-        <v>300000</v>
-      </c>
-      <c r="T3" s="4">
+      <c r="P3">
+        <v>300000</v>
+      </c>
+      <c r="Q3">
+        <v>300000</v>
+      </c>
+      <c r="R3" s="8">
+        <v>300000</v>
+      </c>
+      <c r="S3">
+        <v>300000</v>
+      </c>
+      <c r="T3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>45660</v>
       </c>
-      <c r="B4">
-        <v>300000</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="B4" s="5">
+        <v>300000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <v>35</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>380</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>3.9</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="8">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <f t="shared" ref="K4:K47" si="1">(J4-M4)/L3</f>
         <v>1</v>
       </c>
@@ -1285,61 +1307,61 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4">
         <v>1</v>
       </c>
-      <c r="P4" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R4" s="5">
-        <v>300000</v>
-      </c>
-      <c r="S4" s="4">
-        <v>300000</v>
-      </c>
-      <c r="T4" s="4">
+      <c r="P4">
+        <v>300000</v>
+      </c>
+      <c r="Q4">
+        <v>300000</v>
+      </c>
+      <c r="R4" s="8">
+        <v>300000</v>
+      </c>
+      <c r="S4">
+        <v>300000</v>
+      </c>
+      <c r="T4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>45661</v>
       </c>
-      <c r="B5">
-        <v>300000</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="B5" s="5">
+        <v>300000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <v>35</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>380</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>3.9</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="8">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1350,61 +1372,61 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R5" s="5">
-        <v>300000</v>
-      </c>
-      <c r="S5" s="4">
-        <v>300000</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="3">
+      <c r="P5">
+        <v>300000</v>
+      </c>
+      <c r="Q5">
+        <v>300000</v>
+      </c>
+      <c r="R5" s="8">
+        <v>300000</v>
+      </c>
+      <c r="S5">
+        <v>300000</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:20">
+      <c r="A6" s="6">
         <v>45662</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>264800</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
         <v>1000</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <v>35</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>380</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>3.9</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="8">
         <f t="shared" si="0"/>
         <v>299800</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>0.999333333333333</v>
       </c>
@@ -1415,61 +1437,61 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6">
         <v>0.999333</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="P6" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="P6">
+        <v>300000</v>
+      </c>
+      <c r="Q6">
+        <v>300000</v>
+      </c>
+      <c r="R6" s="8">
         <v>299800</v>
       </c>
-      <c r="S6" s="4">
-        <v>300000</v>
-      </c>
-      <c r="T6" s="4">
+      <c r="S6">
+        <v>300000</v>
+      </c>
+      <c r="T6">
         <v>-0.0007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>45663</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>264800</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
         <v>1000</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>35</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>380</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>3.9</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="8">
         <f t="shared" si="0"/>
         <v>299800</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>0.999333333333333</v>
       </c>
@@ -1480,61 +1502,61 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7">
         <v>0.999333</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7">
         <v>0.999333</v>
       </c>
-      <c r="P7" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="P7">
+        <v>300000</v>
+      </c>
+      <c r="Q7">
+        <v>300000</v>
+      </c>
+      <c r="R7" s="8">
         <v>299800</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7">
         <v>299800</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>45664</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>264800</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
         <v>1000</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <v>35</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>380</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>3.9</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="8">
         <f t="shared" si="0"/>
         <v>299800</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>0.999333333333333</v>
       </c>
@@ -1545,61 +1567,61 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8">
         <v>0.999333</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8">
         <v>0.999333</v>
       </c>
-      <c r="P8" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R8" s="5">
+      <c r="P8">
+        <v>300000</v>
+      </c>
+      <c r="Q8">
+        <v>300000</v>
+      </c>
+      <c r="R8" s="8">
         <v>299800</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8">
         <v>299800</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>45665</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>264800</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
         <v>1000</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <v>35</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>380</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <v>3.9</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="8">
         <f t="shared" si="0"/>
         <v>299800</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>0.999333333333333</v>
       </c>
@@ -1610,62 +1632,62 @@
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9">
         <v>0.999333</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9">
         <v>0.999333</v>
       </c>
-      <c r="P9" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="P9">
+        <v>300000</v>
+      </c>
+      <c r="Q9">
+        <v>300000</v>
+      </c>
+      <c r="R9" s="8">
         <v>299800</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9">
         <v>299800</v>
       </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="3">
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:20">
+      <c r="A10" s="6">
         <v>45666</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <f>B9-184000</f>
         <v>80800</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>200000</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>1000</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>35</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>380</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>3.9</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="8">
         <f t="shared" si="0"/>
         <v>299800</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>0.999333333333333</v>
       </c>
@@ -1676,61 +1698,61 @@
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10">
         <v>0.999333</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10">
         <v>0.999333</v>
       </c>
-      <c r="P10" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R10" s="5">
+      <c r="P10">
+        <v>300000</v>
+      </c>
+      <c r="Q10">
+        <v>300000</v>
+      </c>
+      <c r="R10" s="8">
         <v>299800</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10">
         <v>299800</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>45667</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>80800</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>200000</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>1000</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
         <v>40</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>380</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>3.9</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -1741,62 +1763,62 @@
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O11" s="4">
+      <c r="N11">
+        <v>1.016</v>
+      </c>
+      <c r="O11">
         <v>0.999333</v>
       </c>
-      <c r="P11" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R11" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S11" s="4">
+      <c r="P11">
+        <v>300000</v>
+      </c>
+      <c r="Q11">
+        <v>300000</v>
+      </c>
+      <c r="R11" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S11">
         <v>299800</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11">
         <v>0.0167</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="3">
+    <row r="12" s="1" customFormat="1" spans="1:20">
+      <c r="A12" s="6">
         <v>45668</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>80800</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <f>C11-190000</f>
         <v>10000</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>1000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>500</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <v>40</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>380</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="5">
         <v>3.9</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -1807,61 +1829,61 @@
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="N12" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O12" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P12" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R12" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S12" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T12" s="4">
+      <c r="N12">
+        <v>1.016</v>
+      </c>
+      <c r="O12">
+        <v>1.016</v>
+      </c>
+      <c r="P12">
+        <v>300000</v>
+      </c>
+      <c r="Q12">
+        <v>300000</v>
+      </c>
+      <c r="R12" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S12">
+        <v>304800</v>
+      </c>
+      <c r="T12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>45669</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>80800</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>10000</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>1000</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>500</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <v>40</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>380</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <v>3.9</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -1872,61 +1894,61 @@
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O13" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P13" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R13" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S13" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T13" s="4">
+      <c r="N13">
+        <v>1.016</v>
+      </c>
+      <c r="O13">
+        <v>1.016</v>
+      </c>
+      <c r="P13">
+        <v>300000</v>
+      </c>
+      <c r="Q13">
+        <v>300000</v>
+      </c>
+      <c r="R13" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S13">
+        <v>304800</v>
+      </c>
+      <c r="T13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>45670</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>80800</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>10000</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>1000</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>500</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
         <v>40</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>380</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="5">
         <v>3.9</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -1937,61 +1959,61 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O14" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P14" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R14" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S14" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T14" s="4">
+      <c r="N14">
+        <v>1.016</v>
+      </c>
+      <c r="O14">
+        <v>1.016</v>
+      </c>
+      <c r="P14">
+        <v>300000</v>
+      </c>
+      <c r="Q14">
+        <v>300000</v>
+      </c>
+      <c r="R14" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S14">
+        <v>304800</v>
+      </c>
+      <c r="T14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>45671</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>80800</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>10000</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>1000</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>500</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
         <v>40</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>380</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <v>3.9</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2002,61 +2024,61 @@
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O15" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P15" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R15" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S15" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T15" s="4">
+      <c r="N15">
+        <v>1.016</v>
+      </c>
+      <c r="O15">
+        <v>1.016</v>
+      </c>
+      <c r="P15">
+        <v>300000</v>
+      </c>
+      <c r="Q15">
+        <v>300000</v>
+      </c>
+      <c r="R15" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S15">
+        <v>304800</v>
+      </c>
+      <c r="T15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>45672</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>80800</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>10000</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>1000</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>500</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
         <v>40</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <v>380</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <v>3.9</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2067,61 +2089,61 @@
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O16" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P16" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R16" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S16" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T16" s="4">
+      <c r="N16">
+        <v>1.016</v>
+      </c>
+      <c r="O16">
+        <v>1.016</v>
+      </c>
+      <c r="P16">
+        <v>300000</v>
+      </c>
+      <c r="Q16">
+        <v>300000</v>
+      </c>
+      <c r="R16" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S16">
+        <v>304800</v>
+      </c>
+      <c r="T16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>45673</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>80800</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>10000</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>1000</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>500</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
         <v>40</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>380</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="5">
         <v>3.9</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2132,61 +2154,61 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O17" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P17" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R17" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S17" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T17" s="4">
+      <c r="N17">
+        <v>1.016</v>
+      </c>
+      <c r="O17">
+        <v>1.016</v>
+      </c>
+      <c r="P17">
+        <v>300000</v>
+      </c>
+      <c r="Q17">
+        <v>300000</v>
+      </c>
+      <c r="R17" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S17">
+        <v>304800</v>
+      </c>
+      <c r="T17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>45674</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>80800</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>10000</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>1000</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>500</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
         <v>40</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>380</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
         <v>3.9</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2197,61 +2219,61 @@
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="N18" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O18" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P18" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R18" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S18" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T18" s="4">
+      <c r="N18">
+        <v>1.016</v>
+      </c>
+      <c r="O18">
+        <v>1.016</v>
+      </c>
+      <c r="P18">
+        <v>300000</v>
+      </c>
+      <c r="Q18">
+        <v>300000</v>
+      </c>
+      <c r="R18" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S18">
+        <v>304800</v>
+      </c>
+      <c r="T18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>45675</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>80800</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>10000</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>1000</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>500</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
         <v>40</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
         <v>380</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="5">
         <v>3.9</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2262,61 +2284,61 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O19" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P19" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R19" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S19" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T19" s="4">
+      <c r="N19">
+        <v>1.016</v>
+      </c>
+      <c r="O19">
+        <v>1.016</v>
+      </c>
+      <c r="P19">
+        <v>300000</v>
+      </c>
+      <c r="Q19">
+        <v>300000</v>
+      </c>
+      <c r="R19" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S19">
+        <v>304800</v>
+      </c>
+      <c r="T19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>45676</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>80800</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>10000</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>1000</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>500</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
         <v>40</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <v>380</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="5">
         <v>3.9</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2327,61 +2349,61 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O20" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P20" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R20" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S20" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T20" s="4">
+      <c r="N20">
+        <v>1.016</v>
+      </c>
+      <c r="O20">
+        <v>1.016</v>
+      </c>
+      <c r="P20">
+        <v>300000</v>
+      </c>
+      <c r="Q20">
+        <v>300000</v>
+      </c>
+      <c r="R20" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S20">
+        <v>304800</v>
+      </c>
+      <c r="T20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>45677</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>80800</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>10000</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>1000</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>500</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
         <v>40</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <v>380</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="5">
         <v>3.9</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2392,61 +2414,61 @@
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O21" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P21" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R21" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S21" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T21" s="4">
+      <c r="N21">
+        <v>1.016</v>
+      </c>
+      <c r="O21">
+        <v>1.016</v>
+      </c>
+      <c r="P21">
+        <v>300000</v>
+      </c>
+      <c r="Q21">
+        <v>300000</v>
+      </c>
+      <c r="R21" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S21">
+        <v>304800</v>
+      </c>
+      <c r="T21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>45678</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>80800</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>10000</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>1000</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>500</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
         <v>40</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="5">
         <v>380</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="5">
         <v>3.9</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2457,61 +2479,61 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O22" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P22" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R22" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S22" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T22" s="4">
+      <c r="N22">
+        <v>1.016</v>
+      </c>
+      <c r="O22">
+        <v>1.016</v>
+      </c>
+      <c r="P22">
+        <v>300000</v>
+      </c>
+      <c r="Q22">
+        <v>300000</v>
+      </c>
+      <c r="R22" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S22">
+        <v>304800</v>
+      </c>
+      <c r="T22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <v>45679</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>80800</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>10000</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>1000</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>500</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
         <v>40</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="5">
         <v>380</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="5">
         <v>3.9</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2522,61 +2544,61 @@
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="N23" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O23" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P23" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R23" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S23" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T23" s="4">
+      <c r="N23">
+        <v>1.016</v>
+      </c>
+      <c r="O23">
+        <v>1.016</v>
+      </c>
+      <c r="P23">
+        <v>300000</v>
+      </c>
+      <c r="Q23">
+        <v>300000</v>
+      </c>
+      <c r="R23" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S23">
+        <v>304800</v>
+      </c>
+      <c r="T23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>45680</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>80800</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>10000</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>1000</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>500</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
         <v>40</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="5">
         <v>380</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="5">
         <v>3.9</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2587,61 +2609,61 @@
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O24" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P24" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R24" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S24" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T24" s="4">
+      <c r="N24">
+        <v>1.016</v>
+      </c>
+      <c r="O24">
+        <v>1.016</v>
+      </c>
+      <c r="P24">
+        <v>300000</v>
+      </c>
+      <c r="Q24">
+        <v>300000</v>
+      </c>
+      <c r="R24" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S24">
+        <v>304800</v>
+      </c>
+      <c r="T24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <v>45681</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>80800</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>10000</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>1000</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="5">
         <v>500</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
         <v>40</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="5">
         <v>380</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="5">
         <v>3.9</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2652,61 +2674,61 @@
       <c r="M25">
         <v>0</v>
       </c>
-      <c r="N25" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O25" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P25" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R25" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S25" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T25" s="4">
+      <c r="N25">
+        <v>1.016</v>
+      </c>
+      <c r="O25">
+        <v>1.016</v>
+      </c>
+      <c r="P25">
+        <v>300000</v>
+      </c>
+      <c r="Q25">
+        <v>300000</v>
+      </c>
+      <c r="R25" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S25">
+        <v>304800</v>
+      </c>
+      <c r="T25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>45682</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>80800</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>10000</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>1000</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <v>500</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
         <v>40</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="5">
         <v>380</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="5">
         <v>3.9</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2717,61 +2739,61 @@
       <c r="M26">
         <v>0</v>
       </c>
-      <c r="N26" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O26" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P26" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R26" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S26" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T26" s="4">
+      <c r="N26">
+        <v>1.016</v>
+      </c>
+      <c r="O26">
+        <v>1.016</v>
+      </c>
+      <c r="P26">
+        <v>300000</v>
+      </c>
+      <c r="Q26">
+        <v>300000</v>
+      </c>
+      <c r="R26" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S26">
+        <v>304800</v>
+      </c>
+      <c r="T26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>45683</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>80800</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>10000</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>1000</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="5">
         <v>500</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
         <v>40</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="5">
         <v>380</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="5">
         <v>3.9</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2782,61 +2804,61 @@
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="N27" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O27" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P27" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R27" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S27" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T27" s="4">
+      <c r="N27">
+        <v>1.016</v>
+      </c>
+      <c r="O27">
+        <v>1.016</v>
+      </c>
+      <c r="P27">
+        <v>300000</v>
+      </c>
+      <c r="Q27">
+        <v>300000</v>
+      </c>
+      <c r="R27" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S27">
+        <v>304800</v>
+      </c>
+      <c r="T27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="3">
+      <c r="A28" s="6">
         <v>45684</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>80800</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>10000</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>1000</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>500</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
         <v>40</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="5">
         <v>380</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="5">
         <v>3.9</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2847,61 +2869,61 @@
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="N28" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O28" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P28" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R28" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S28" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T28" s="4">
+      <c r="N28">
+        <v>1.016</v>
+      </c>
+      <c r="O28">
+        <v>1.016</v>
+      </c>
+      <c r="P28">
+        <v>300000</v>
+      </c>
+      <c r="Q28">
+        <v>300000</v>
+      </c>
+      <c r="R28" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S28">
+        <v>304800</v>
+      </c>
+      <c r="T28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="3">
+      <c r="A29" s="6">
         <v>45685</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>80800</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>10000</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>1000</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <v>500</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
         <v>40</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="5">
         <v>380</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="5">
         <v>3.9</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2912,61 +2934,61 @@
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="N29" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O29" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P29" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R29" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S29" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T29" s="4">
+      <c r="N29">
+        <v>1.016</v>
+      </c>
+      <c r="O29">
+        <v>1.016</v>
+      </c>
+      <c r="P29">
+        <v>300000</v>
+      </c>
+      <c r="Q29">
+        <v>300000</v>
+      </c>
+      <c r="R29" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S29">
+        <v>304800</v>
+      </c>
+      <c r="T29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="3">
+      <c r="A30" s="6">
         <v>45686</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>80800</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>10000</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>1000</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>500</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
         <v>40</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="5">
         <v>380</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="5">
         <v>3.9</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -2977,61 +2999,61 @@
       <c r="M30">
         <v>0</v>
       </c>
-      <c r="N30" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O30" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P30" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R30" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S30" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T30" s="4">
+      <c r="N30">
+        <v>1.016</v>
+      </c>
+      <c r="O30">
+        <v>1.016</v>
+      </c>
+      <c r="P30">
+        <v>300000</v>
+      </c>
+      <c r="Q30">
+        <v>300000</v>
+      </c>
+      <c r="R30" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S30">
+        <v>304800</v>
+      </c>
+      <c r="T30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="3">
+      <c r="A31" s="6">
         <v>45687</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>80800</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>10000</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>1000</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="5">
         <v>500</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
         <v>40</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="5">
         <v>380</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="5">
         <v>3.9</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -3042,61 +3064,61 @@
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="N31" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O31" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P31" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R31" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S31" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T31" s="4">
+      <c r="N31">
+        <v>1.016</v>
+      </c>
+      <c r="O31">
+        <v>1.016</v>
+      </c>
+      <c r="P31">
+        <v>300000</v>
+      </c>
+      <c r="Q31">
+        <v>300000</v>
+      </c>
+      <c r="R31" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S31">
+        <v>304800</v>
+      </c>
+      <c r="T31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <v>45688</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>80800</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>10000</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <v>1000</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="5">
         <v>500</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
         <v>40</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="5">
         <v>380</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="5">
         <v>3.9</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="8">
         <f t="shared" si="0"/>
         <v>304800</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -3107,61 +3129,61 @@
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O32" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P32" s="4">
-        <v>300000</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R32" s="5">
-        <v>304800</v>
-      </c>
-      <c r="S32" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="3">
+      <c r="N32">
+        <v>1.016</v>
+      </c>
+      <c r="O32">
+        <v>1.016</v>
+      </c>
+      <c r="P32">
+        <v>300000</v>
+      </c>
+      <c r="Q32">
+        <v>300000</v>
+      </c>
+      <c r="R32" s="8">
+        <v>304800</v>
+      </c>
+      <c r="S32">
+        <v>304800</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:20">
+      <c r="A33" s="6">
         <v>45689</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>180800</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>10000</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <v>1000</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="5">
         <v>500</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
         <v>40</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="5">
         <v>380</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="5">
         <v>3.9</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="8">
         <f t="shared" si="0"/>
         <v>404800</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -3172,61 +3194,61 @@
       <c r="M33">
         <v>100000</v>
       </c>
-      <c r="N33" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O33" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P33" s="4">
+      <c r="N33">
+        <v>1.016</v>
+      </c>
+      <c r="O33">
+        <v>1.016</v>
+      </c>
+      <c r="P33">
         <v>398425.2</v>
       </c>
-      <c r="Q33" s="4">
-        <v>300000</v>
-      </c>
-      <c r="R33" s="5">
+      <c r="Q33">
+        <v>300000</v>
+      </c>
+      <c r="R33" s="8">
         <v>404800</v>
       </c>
-      <c r="S33" s="4">
-        <v>304800</v>
-      </c>
-      <c r="T33" s="4">
+      <c r="S33">
+        <v>304800</v>
+      </c>
+      <c r="T33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="3">
+      <c r="A34" s="6">
         <v>45690</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>180800</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>10000</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <v>1000</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="5">
         <v>500</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
         <v>40</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="5">
         <v>380</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="5">
         <v>3.9</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="8">
         <f t="shared" si="0"/>
         <v>404800</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -3237,61 +3259,61 @@
       <c r="M34">
         <v>0</v>
       </c>
-      <c r="N34" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O34" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P34" s="4">
+      <c r="N34">
+        <v>1.016</v>
+      </c>
+      <c r="O34">
+        <v>1.016</v>
+      </c>
+      <c r="P34">
         <v>398425.2</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34">
         <v>398425.2</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="8">
         <v>404800</v>
       </c>
-      <c r="S34" s="4">
+      <c r="S34">
         <v>404800</v>
       </c>
-      <c r="T34" s="4">
+      <c r="T34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="3">
+      <c r="A35" s="6">
         <v>45691</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>180800</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>10000</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <v>1000</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="5">
         <v>500</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
         <v>40</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="5">
         <v>380</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="5">
         <v>3.9</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="8">
         <f t="shared" si="0"/>
         <v>404800</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -3302,61 +3324,61 @@
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="N35" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O35" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P35" s="4">
+      <c r="N35">
+        <v>1.016</v>
+      </c>
+      <c r="O35">
+        <v>1.016</v>
+      </c>
+      <c r="P35">
         <v>398425.2</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35">
         <v>398425.2</v>
       </c>
-      <c r="R35" s="5">
+      <c r="R35" s="8">
         <v>404800</v>
       </c>
-      <c r="S35" s="4">
+      <c r="S35">
         <v>404800</v>
       </c>
-      <c r="T35" s="4">
+      <c r="T35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="3">
+      <c r="A36" s="6">
         <v>45692</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>180800</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>10000</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <v>1000</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="5">
         <v>500</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
         <v>40</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="5">
         <v>380</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="5">
         <v>3.9</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="8">
         <f t="shared" si="0"/>
         <v>404800</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -3367,61 +3389,61 @@
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="N36" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O36" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P36" s="4">
+      <c r="N36">
+        <v>1.016</v>
+      </c>
+      <c r="O36">
+        <v>1.016</v>
+      </c>
+      <c r="P36">
         <v>398425.2</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36">
         <v>398425.2</v>
       </c>
-      <c r="R36" s="5">
+      <c r="R36" s="8">
         <v>404800</v>
       </c>
-      <c r="S36" s="4">
+      <c r="S36">
         <v>404800</v>
       </c>
-      <c r="T36" s="4">
+      <c r="T36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="3">
+      <c r="A37" s="6">
         <v>45693</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>180800</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>10000</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <v>1000</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="5">
         <v>500</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
         <v>40</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="5">
         <v>380</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="5">
         <v>3.9</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="8">
         <f t="shared" si="0"/>
         <v>404800</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -3432,61 +3454,61 @@
       <c r="M37">
         <v>0</v>
       </c>
-      <c r="N37" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O37" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P37" s="4">
+      <c r="N37">
+        <v>1.016</v>
+      </c>
+      <c r="O37">
+        <v>1.016</v>
+      </c>
+      <c r="P37">
         <v>398425.2</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37">
         <v>398425.2</v>
       </c>
-      <c r="R37" s="5">
+      <c r="R37" s="8">
         <v>404800</v>
       </c>
-      <c r="S37" s="4">
+      <c r="S37">
         <v>404800</v>
       </c>
-      <c r="T37" s="4">
+      <c r="T37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="3">
+      <c r="A38" s="6">
         <v>45694</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>180800</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>10000</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <v>1000</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="5">
         <v>500</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
         <v>40</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="5">
         <v>380</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="5">
         <v>3.9</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="8">
         <f t="shared" si="0"/>
         <v>404800</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38">
         <f t="shared" si="1"/>
         <v>1.016</v>
       </c>
@@ -3497,62 +3519,62 @@
       <c r="M38">
         <v>0</v>
       </c>
-      <c r="N38" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="O38" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P38" s="4">
+      <c r="N38">
+        <v>1.016</v>
+      </c>
+      <c r="O38">
+        <v>1.016</v>
+      </c>
+      <c r="P38">
         <v>398425.2</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38">
         <v>398425.2</v>
       </c>
-      <c r="R38" s="5">
+      <c r="R38" s="8">
         <v>404800</v>
       </c>
-      <c r="S38" s="4">
+      <c r="S38">
         <v>404800</v>
       </c>
-      <c r="T38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="3">
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:20">
+      <c r="A39" s="6">
         <v>45695</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <f>B38+100</f>
         <v>180900</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <v>10000</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>1000</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="5">
         <v>500</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
         <v>45</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="5">
         <v>380</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="5">
         <v>3.9</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="8">
         <f t="shared" si="0"/>
         <v>409900</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39">
         <f t="shared" si="1"/>
         <v>1.02880039525692</v>
       </c>
@@ -3563,61 +3585,61 @@
       <c r="M39">
         <v>0</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39">
         <v>1.0288</v>
       </c>
-      <c r="O39" s="4">
-        <v>1.016</v>
-      </c>
-      <c r="P39" s="4">
+      <c r="O39">
+        <v>1.016</v>
+      </c>
+      <c r="P39">
         <v>398425.2</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39">
         <v>398425.2</v>
       </c>
-      <c r="R39" s="5">
+      <c r="R39" s="8">
         <v>409900</v>
       </c>
-      <c r="S39" s="4">
+      <c r="S39">
         <v>404800</v>
       </c>
-      <c r="T39" s="4">
+      <c r="T39">
         <v>0.0126</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="3">
+    <row r="40" s="1" customFormat="1" spans="1:20">
+      <c r="A40" s="6">
         <v>45696</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>180900</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
         <v>1000</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="5">
         <v>500</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
         <v>45</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="5">
         <v>380</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="5">
         <v>3.9</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="8">
         <f t="shared" si="0"/>
         <v>400700</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40">
         <f t="shared" si="1"/>
         <v>1.02880039525692</v>
       </c>
@@ -3628,61 +3650,61 @@
       <c r="M40">
         <v>-9200</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40">
         <v>1.0288</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40">
         <v>1.0288</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40">
         <v>389482.74</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40">
         <v>398425.2</v>
       </c>
-      <c r="R40" s="5">
+      <c r="R40" s="8">
         <v>400700</v>
       </c>
-      <c r="S40" s="4">
+      <c r="S40">
         <v>409900</v>
       </c>
-      <c r="T40" s="4">
+      <c r="T40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="3">
+      <c r="A41" s="6">
         <v>45697</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>180900</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5">
         <v>1000</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="5">
         <v>500</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
         <v>45</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="5">
         <v>380</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="5">
         <v>3.9</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="8">
         <f t="shared" si="0"/>
         <v>400700</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41">
         <f t="shared" si="1"/>
         <v>1.02880039525692</v>
       </c>
@@ -3693,62 +3715,62 @@
       <c r="M41">
         <v>0</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41">
         <v>1.0288</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41">
         <v>1.0288</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P41">
         <v>389482.74</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="Q41">
         <v>389482.74</v>
       </c>
-      <c r="R41" s="5">
+      <c r="R41" s="8">
         <v>400700</v>
       </c>
-      <c r="S41" s="4">
+      <c r="S41">
         <v>400700</v>
       </c>
-      <c r="T41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="3">
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:20">
+      <c r="A42" s="6">
         <v>45698</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <f>B41+48000</f>
         <v>228900</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
         <v>500</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
         <v>50</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="5">
         <v>380</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="5">
         <v>3.9</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="8">
         <f t="shared" si="0"/>
         <v>403700</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42">
         <f t="shared" si="1"/>
         <v>1.03650291880513</v>
       </c>
@@ -3759,62 +3781,62 @@
       <c r="M42">
         <v>0</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42">
         <v>1.036503</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42">
         <v>1.0288</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42">
         <v>389482.74</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="Q42">
         <v>389482.74</v>
       </c>
-      <c r="R42" s="5">
+      <c r="R42" s="8">
         <v>403700</v>
       </c>
-      <c r="S42" s="4">
+      <c r="S42">
         <v>400700</v>
       </c>
-      <c r="T42" s="4">
+      <c r="T42">
         <v>0.0075</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="3">
+    <row r="43" s="1" customFormat="1" spans="1:20">
+      <c r="A43" s="6">
         <v>45699</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>228900</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <f>C42+40000</f>
         <v>40000</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
         <v>400</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
         <v>50</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="5">
         <v>450</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="5">
         <v>3.9</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="8">
         <f t="shared" si="0"/>
         <v>431300</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43">
         <f t="shared" si="1"/>
         <v>1.10736613544874</v>
       </c>
@@ -3825,62 +3847,62 @@
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43">
         <v>1.107366</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43">
         <v>1.036503</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43">
         <v>389482.74</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q43">
         <v>389482.74</v>
       </c>
-      <c r="R43" s="5">
+      <c r="R43" s="8">
         <v>431300</v>
       </c>
-      <c r="S43" s="4">
+      <c r="S43">
         <v>403700</v>
       </c>
-      <c r="T43" s="4">
+      <c r="T43">
         <v>0.0684</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="3">
+    <row r="44" s="1" customFormat="1" spans="1:20">
+      <c r="A44" s="6">
         <v>45700</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <f>B43-38000</f>
         <v>190900</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>40000</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
         <v>400</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="5">
         <v>10000</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="5">
         <v>50</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="5">
         <v>450</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="5">
         <v>3.9</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="8">
         <f t="shared" si="0"/>
         <v>432300</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44">
         <f t="shared" si="1"/>
         <v>1.10993364329814</v>
       </c>
@@ -3891,61 +3913,61 @@
       <c r="M44">
         <v>0</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N44">
         <v>1.109934</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44">
         <v>1.107366</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44">
         <v>389482.74</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="Q44">
         <v>389482.74</v>
       </c>
-      <c r="R44" s="5">
+      <c r="R44" s="8">
         <v>432300</v>
       </c>
-      <c r="S44" s="4">
+      <c r="S44">
         <v>431300</v>
       </c>
-      <c r="T44" s="4">
+      <c r="T44">
         <v>0.0023</v>
       </c>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="3">
+      <c r="A45" s="6">
         <v>45701</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>190900</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <v>40000</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
         <v>400</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="5">
         <v>10000</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="5">
         <v>50</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="5">
         <v>450</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="5">
         <v>3.9</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="8">
         <f t="shared" si="0"/>
         <v>432300</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45">
         <f t="shared" si="1"/>
         <v>1.10993364329814</v>
       </c>
@@ -3956,61 +3978,61 @@
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45">
         <v>1.109934</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45">
         <v>1.109934</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P45">
         <v>389482.74</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q45">
         <v>389482.74</v>
       </c>
-      <c r="R45" s="5">
+      <c r="R45" s="8">
         <v>432300</v>
       </c>
-      <c r="S45" s="4">
+      <c r="S45">
         <v>432300</v>
       </c>
-      <c r="T45" s="4">
+      <c r="T45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="3">
+      <c r="A46" s="6">
         <v>45702</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>190900</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <v>40000</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
         <v>400</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="5">
         <v>10000</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="5">
         <v>50</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="5">
         <v>450</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="5">
         <v>3.9</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="8">
         <f t="shared" si="0"/>
         <v>432300</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46">
         <f t="shared" si="1"/>
         <v>1.10993364329814</v>
       </c>
@@ -4021,61 +4043,61 @@
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N46">
         <v>1.109934</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O46">
         <v>1.109934</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46">
         <v>389482.74</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="Q46">
         <v>389482.74</v>
       </c>
-      <c r="R46" s="5">
+      <c r="R46" s="8">
         <v>432300</v>
       </c>
-      <c r="S46" s="4">
+      <c r="S46">
         <v>432300</v>
       </c>
-      <c r="T46" s="4">
+      <c r="T46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:20">
-      <c r="A47" s="3">
+      <c r="A47" s="6">
         <v>45703</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>190900</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="5">
         <v>40000</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
         <v>400</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="5">
         <v>10000</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="5">
         <v>50</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="5">
         <v>450</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="5">
         <v>3.9</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="8">
         <f t="shared" si="0"/>
         <v>432300</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47">
         <f t="shared" si="1"/>
         <v>1.10993364329814</v>
       </c>
@@ -4086,26 +4108,1340 @@
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N47">
         <v>1.109934</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47">
         <v>1.109934</v>
       </c>
-      <c r="P47" s="4">
+      <c r="P47">
         <v>389482.74</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="Q47">
         <v>389482.74</v>
       </c>
-      <c r="R47" s="5">
+      <c r="R47" s="8">
         <v>432300</v>
       </c>
-      <c r="S47" s="4">
+      <c r="S47">
         <v>432300</v>
       </c>
-      <c r="T47" s="4">
-        <v>0</v>
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="7">
+        <v>45704</v>
+      </c>
+      <c r="B48" s="3">
+        <v>190900</v>
+      </c>
+      <c r="C48" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>50</v>
+      </c>
+      <c r="H48" s="3">
+        <v>450</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" ref="J48:J50" si="3">B48+C48*0.92+D48*G48+E48*H48*0.92+F48*I48</f>
+        <v>432300</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" ref="K48:K51" si="4">(J48-M48)/L47</f>
+        <v>1.10993364329814</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" ref="L48:L50" si="5">L47+M48/K48</f>
+        <v>389482.743054288</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" ref="N3:N50" si="6">K48</f>
+        <v>1.10993364329814</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" ref="O4:O65" si="7">N47</f>
+        <v>1.109934</v>
+      </c>
+      <c r="P48" s="2">
+        <f t="shared" ref="P3:P50" si="8">L48</f>
+        <v>389482.743054288</v>
+      </c>
+      <c r="Q48" s="2">
+        <f t="shared" ref="Q4:Q65" si="9">P47</f>
+        <v>389482.74</v>
+      </c>
+      <c r="R48" s="4">
+        <f t="shared" ref="R3:R50" si="10">J48</f>
+        <v>432300</v>
+      </c>
+      <c r="S48" s="2">
+        <f t="shared" ref="S4:S65" si="11">R47</f>
+        <v>432300</v>
+      </c>
+      <c r="T48" s="9">
+        <f>N48/O48-1</f>
+        <v>-3.21372134237663e-7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="7">
+        <v>45705</v>
+      </c>
+      <c r="B49" s="3">
+        <v>190900</v>
+      </c>
+      <c r="C49" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>50</v>
+      </c>
+      <c r="H49" s="3">
+        <v>450</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="3"/>
+        <v>432300</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="4"/>
+        <v>1.10993364329814</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="5"/>
+        <v>389482.743054288</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="6"/>
+        <v>1.10993364329814</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="7"/>
+        <v>1.10993364329814</v>
+      </c>
+      <c r="P49" s="2">
+        <f t="shared" si="8"/>
+        <v>389482.743054288</v>
+      </c>
+      <c r="Q49" s="2">
+        <f t="shared" si="9"/>
+        <v>389482.743054288</v>
+      </c>
+      <c r="R49" s="4">
+        <f t="shared" si="10"/>
+        <v>432300</v>
+      </c>
+      <c r="S49" s="2">
+        <f t="shared" si="11"/>
+        <v>432300</v>
+      </c>
+      <c r="T49" s="9">
+        <f>N49/O49-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="7">
+        <v>45706</v>
+      </c>
+      <c r="B50" s="3">
+        <f>190900+50000</f>
+        <v>240900</v>
+      </c>
+      <c r="C50" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>400</v>
+      </c>
+      <c r="F50" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G50" s="3">
+        <v>50</v>
+      </c>
+      <c r="H50" s="3">
+        <v>450</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="3"/>
+        <v>472300</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="4"/>
+        <v>1.08425856480408</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="5"/>
+        <v>435597.204699361</v>
+      </c>
+      <c r="M50" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="6"/>
+        <v>1.08425856480408</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="7"/>
+        <v>1.10993364329814</v>
+      </c>
+      <c r="P50" s="2">
+        <f t="shared" si="8"/>
+        <v>435597.204699361</v>
+      </c>
+      <c r="Q50" s="2">
+        <f t="shared" si="9"/>
+        <v>389482.743054288</v>
+      </c>
+      <c r="R50" s="4">
+        <f t="shared" si="10"/>
+        <v>472300</v>
+      </c>
+      <c r="S50" s="2">
+        <f t="shared" si="11"/>
+        <v>432300</v>
+      </c>
+      <c r="T50" s="9">
+        <f t="shared" ref="T50:T63" si="12">N50/O50-1</f>
+        <v>-0.0231320842007866</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="7">
+        <v>45707</v>
+      </c>
+      <c r="B51" s="3">
+        <f t="shared" ref="B51:B52" si="13">190900+50000</f>
+        <v>240900</v>
+      </c>
+      <c r="C51" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>400</v>
+      </c>
+      <c r="F51" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G51" s="3">
+        <v>50</v>
+      </c>
+      <c r="H51" s="3">
+        <v>450</v>
+      </c>
+      <c r="I51" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" ref="J51:J52" si="14">B51+C51*0.92+D51*G51+E51*H51*0.92+F51*I51</f>
+        <v>472300</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="4"/>
+        <v>1.08425856480408</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" ref="L51:L52" si="15">L50+M51/K51</f>
+        <v>435597.204699361</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" ref="N51:N52" si="16">K51</f>
+        <v>1.08425856480408</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="7"/>
+        <v>1.08425856480408</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" ref="P51:P52" si="17">L51</f>
+        <v>435597.204699361</v>
+      </c>
+      <c r="Q51" s="2">
+        <f t="shared" si="9"/>
+        <v>435597.204699361</v>
+      </c>
+      <c r="R51" s="4">
+        <f t="shared" ref="R51:R52" si="18">J51</f>
+        <v>472300</v>
+      </c>
+      <c r="S51" s="2">
+        <f t="shared" si="11"/>
+        <v>472300</v>
+      </c>
+      <c r="T51" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="7">
+        <v>45708</v>
+      </c>
+      <c r="B52" s="3">
+        <f t="shared" si="13"/>
+        <v>240900</v>
+      </c>
+      <c r="C52" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>50</v>
+      </c>
+      <c r="H52" s="3">
+        <v>450</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J52" s="4">
+        <f t="shared" si="14"/>
+        <v>465800</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" ref="K51:K52" si="19">(J52-M52)/L51</f>
+        <v>1.1209897463346</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="15"/>
+        <v>415525.656254275</v>
+      </c>
+      <c r="M52" s="2">
+        <v>-22500</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="16"/>
+        <v>1.1209897463346</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="7"/>
+        <v>1.08425856480408</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" si="17"/>
+        <v>415525.656254275</v>
+      </c>
+      <c r="Q52" s="2">
+        <f t="shared" si="9"/>
+        <v>435597.204699361</v>
+      </c>
+      <c r="R52" s="4">
+        <f t="shared" si="18"/>
+        <v>465800</v>
+      </c>
+      <c r="S52" s="2">
+        <f t="shared" si="11"/>
+        <v>472300</v>
+      </c>
+      <c r="T52" s="9">
+        <f t="shared" si="12"/>
+        <v>0.0338767732373491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="7">
+        <v>45709</v>
+      </c>
+      <c r="B53" s="3">
+        <f t="shared" ref="B53:B57" si="20">190900+50000</f>
+        <v>240900</v>
+      </c>
+      <c r="C53" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>400</v>
+      </c>
+      <c r="F53" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G53" s="3">
+        <v>50</v>
+      </c>
+      <c r="H53" s="3">
+        <v>450</v>
+      </c>
+      <c r="I53" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" ref="J53:J57" si="21">B53+C53*0.92+D53*G53+E53*H53*0.92+F53*I53</f>
+        <v>465800</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" ref="K53:K57" si="22">(J53-M53)/L52</f>
+        <v>1.1209897463346</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" ref="L53:L57" si="23">L52+M53/K53</f>
+        <v>415525.656254275</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" ref="N53:N57" si="24">K53</f>
+        <v>1.1209897463346</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1209897463346</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" ref="P53:P57" si="25">L53</f>
+        <v>415525.656254275</v>
+      </c>
+      <c r="Q53" s="2">
+        <f t="shared" si="9"/>
+        <v>415525.656254275</v>
+      </c>
+      <c r="R53" s="4">
+        <f t="shared" ref="R53:R57" si="26">J53</f>
+        <v>465800</v>
+      </c>
+      <c r="S53" s="2">
+        <f t="shared" si="11"/>
+        <v>465800</v>
+      </c>
+      <c r="T53" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="7">
+        <v>45710</v>
+      </c>
+      <c r="B54" s="3">
+        <f t="shared" si="20"/>
+        <v>240900</v>
+      </c>
+      <c r="C54" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>50</v>
+      </c>
+      <c r="H54" s="3">
+        <v>450</v>
+      </c>
+      <c r="I54" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" si="21"/>
+        <v>465800</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="22"/>
+        <v>1.1209897463346</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="23"/>
+        <v>415525.656254275</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="24"/>
+        <v>1.1209897463346</v>
+      </c>
+      <c r="O54" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1209897463346</v>
+      </c>
+      <c r="P54" s="2">
+        <f t="shared" si="25"/>
+        <v>415525.656254275</v>
+      </c>
+      <c r="Q54" s="2">
+        <f t="shared" si="9"/>
+        <v>415525.656254275</v>
+      </c>
+      <c r="R54" s="4">
+        <f t="shared" si="26"/>
+        <v>465800</v>
+      </c>
+      <c r="S54" s="2">
+        <f t="shared" si="11"/>
+        <v>465800</v>
+      </c>
+      <c r="T54" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="7">
+        <v>45711</v>
+      </c>
+      <c r="B55" s="3">
+        <f t="shared" si="20"/>
+        <v>240900</v>
+      </c>
+      <c r="C55" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>400</v>
+      </c>
+      <c r="F55" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G55" s="3">
+        <v>50</v>
+      </c>
+      <c r="H55" s="3">
+        <v>450</v>
+      </c>
+      <c r="I55" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J55" s="4">
+        <f t="shared" si="21"/>
+        <v>465800</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="22"/>
+        <v>1.1209897463346</v>
+      </c>
+      <c r="L55" s="2">
+        <f t="shared" si="23"/>
+        <v>415525.656254275</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" si="24"/>
+        <v>1.1209897463346</v>
+      </c>
+      <c r="O55" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1209897463346</v>
+      </c>
+      <c r="P55" s="2">
+        <f t="shared" si="25"/>
+        <v>415525.656254275</v>
+      </c>
+      <c r="Q55" s="2">
+        <f t="shared" si="9"/>
+        <v>415525.656254275</v>
+      </c>
+      <c r="R55" s="4">
+        <f t="shared" si="26"/>
+        <v>465800</v>
+      </c>
+      <c r="S55" s="2">
+        <f t="shared" si="11"/>
+        <v>465800</v>
+      </c>
+      <c r="T55" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="7">
+        <v>45712</v>
+      </c>
+      <c r="B56" s="3">
+        <f t="shared" si="20"/>
+        <v>240900</v>
+      </c>
+      <c r="C56" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>400</v>
+      </c>
+      <c r="F56" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G56" s="3">
+        <v>50</v>
+      </c>
+      <c r="H56" s="3">
+        <v>450</v>
+      </c>
+      <c r="I56" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J56" s="4">
+        <f t="shared" si="21"/>
+        <v>465800</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="22"/>
+        <v>1.1209897463346</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="23"/>
+        <v>415525.656254275</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="24"/>
+        <v>1.1209897463346</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1209897463346</v>
+      </c>
+      <c r="P56" s="2">
+        <f t="shared" si="25"/>
+        <v>415525.656254275</v>
+      </c>
+      <c r="Q56" s="2">
+        <f t="shared" si="9"/>
+        <v>415525.656254275</v>
+      </c>
+      <c r="R56" s="4">
+        <f t="shared" si="26"/>
+        <v>465800</v>
+      </c>
+      <c r="S56" s="2">
+        <f t="shared" si="11"/>
+        <v>465800</v>
+      </c>
+      <c r="T56" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="7">
+        <v>45713</v>
+      </c>
+      <c r="B57" s="3">
+        <f>190900+50000-100000</f>
+        <v>140900</v>
+      </c>
+      <c r="C57" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>50</v>
+      </c>
+      <c r="H57" s="3">
+        <v>440</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" si="21"/>
+        <v>362120</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="22"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" si="23"/>
+        <v>325608.393150693</v>
+      </c>
+      <c r="M57" s="2">
+        <v>-100000</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="24"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1209897463346</v>
+      </c>
+      <c r="P57" s="2">
+        <f t="shared" si="25"/>
+        <v>325608.393150693</v>
+      </c>
+      <c r="Q57" s="2">
+        <f t="shared" si="9"/>
+        <v>415525.656254275</v>
+      </c>
+      <c r="R57" s="4">
+        <f t="shared" si="26"/>
+        <v>362120</v>
+      </c>
+      <c r="S57" s="2">
+        <f t="shared" si="11"/>
+        <v>465800</v>
+      </c>
+      <c r="T57" s="9">
+        <f t="shared" si="12"/>
+        <v>-0.00790038643194491</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="7">
+        <v>45714</v>
+      </c>
+      <c r="B58" s="3">
+        <f t="shared" ref="B58:B59" si="27">190900+50000-100000</f>
+        <v>140900</v>
+      </c>
+      <c r="C58" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>50</v>
+      </c>
+      <c r="H58" s="3">
+        <v>440</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" ref="J58:J59" si="28">B58+C58*0.92+D58*G58+E58*H58*0.92+F58*I58</f>
+        <v>362120</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" ref="K58:K59" si="29">(J58-M58)/L57</f>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" ref="L58:L59" si="30">L57+M58/K58</f>
+        <v>325608.393150693</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" ref="N58:N59" si="31">K58</f>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="7"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="P58" s="2">
+        <f t="shared" ref="P58:P59" si="32">L58</f>
+        <v>325608.393150693</v>
+      </c>
+      <c r="Q58" s="2">
+        <f t="shared" si="9"/>
+        <v>325608.393150693</v>
+      </c>
+      <c r="R58" s="4">
+        <f t="shared" ref="R58:R59" si="33">J58</f>
+        <v>362120</v>
+      </c>
+      <c r="S58" s="2">
+        <f t="shared" si="11"/>
+        <v>362120</v>
+      </c>
+      <c r="T58" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="7">
+        <v>45715</v>
+      </c>
+      <c r="B59" s="3">
+        <f>190900+50000-100000-32000+40000</f>
+        <v>148900</v>
+      </c>
+      <c r="C59" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>40</v>
+      </c>
+      <c r="H59" s="3">
+        <v>440</v>
+      </c>
+      <c r="I59" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" si="28"/>
+        <v>402120</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="29"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="L59" s="2">
+        <f t="shared" si="30"/>
+        <v>361575.298392126</v>
+      </c>
+      <c r="M59" s="2">
+        <v>40000</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="31"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="O59" s="2">
+        <f t="shared" si="7"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="P59" s="2">
+        <f t="shared" si="32"/>
+        <v>361575.298392126</v>
+      </c>
+      <c r="Q59" s="2">
+        <f t="shared" si="9"/>
+        <v>325608.393150693</v>
+      </c>
+      <c r="R59" s="4">
+        <f t="shared" si="33"/>
+        <v>402120</v>
+      </c>
+      <c r="S59" s="2">
+        <f t="shared" si="11"/>
+        <v>362120</v>
+      </c>
+      <c r="T59" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B60" s="3">
+        <f>190900+50000-100000-32000+40000</f>
+        <v>148900</v>
+      </c>
+      <c r="C60" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>40</v>
+      </c>
+      <c r="H60" s="3">
+        <v>440</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" ref="J60:J63" si="34">B60+C60*0.92+D60*G60+E60*H60*0.92+F60*I60</f>
+        <v>402120</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" ref="K60:K63" si="35">(J60-M60)/L59</f>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="L60" s="2">
+        <f t="shared" ref="L60:L63" si="36">L59+M60/K60</f>
+        <v>361575.298392126</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" ref="N60:N63" si="37">K60</f>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="O60" s="2">
+        <f t="shared" si="7"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="P60" s="2">
+        <f t="shared" ref="P60:P63" si="38">L60</f>
+        <v>361575.298392126</v>
+      </c>
+      <c r="Q60" s="2">
+        <f t="shared" si="9"/>
+        <v>361575.298392126</v>
+      </c>
+      <c r="R60" s="4">
+        <f t="shared" ref="R60:R63" si="39">J60</f>
+        <v>402120</v>
+      </c>
+      <c r="S60" s="2">
+        <f t="shared" si="11"/>
+        <v>402120</v>
+      </c>
+      <c r="T60" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="7">
+        <v>45717</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" ref="B60:B63" si="40">190900+50000-100000-32000+40000</f>
+        <v>148900</v>
+      </c>
+      <c r="C61" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G61" s="3">
+        <v>40</v>
+      </c>
+      <c r="H61" s="3">
+        <v>440</v>
+      </c>
+      <c r="I61" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J61" s="4">
+        <f t="shared" si="34"/>
+        <v>402120</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="35"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="L61" s="2">
+        <f t="shared" si="36"/>
+        <v>361575.298392126</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2">
+        <f t="shared" si="37"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="O61" s="2">
+        <f t="shared" si="7"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="P61" s="2">
+        <f t="shared" si="38"/>
+        <v>361575.298392126</v>
+      </c>
+      <c r="Q61" s="2">
+        <f t="shared" si="9"/>
+        <v>361575.298392126</v>
+      </c>
+      <c r="R61" s="4">
+        <f t="shared" si="39"/>
+        <v>402120</v>
+      </c>
+      <c r="S61" s="2">
+        <f t="shared" si="11"/>
+        <v>402120</v>
+      </c>
+      <c r="T61" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="7">
+        <v>45718</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" si="40"/>
+        <v>148900</v>
+      </c>
+      <c r="C62" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>40</v>
+      </c>
+      <c r="H62" s="3">
+        <v>440</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J62" s="4">
+        <f t="shared" si="34"/>
+        <v>402120</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="35"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="L62" s="2">
+        <f t="shared" si="36"/>
+        <v>361575.298392126</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2">
+        <f t="shared" si="37"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="O62" s="2">
+        <f t="shared" si="7"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="P62" s="2">
+        <f t="shared" si="38"/>
+        <v>361575.298392126</v>
+      </c>
+      <c r="Q62" s="2">
+        <f t="shared" si="9"/>
+        <v>361575.298392126</v>
+      </c>
+      <c r="R62" s="4">
+        <f t="shared" si="39"/>
+        <v>402120</v>
+      </c>
+      <c r="S62" s="2">
+        <f t="shared" si="11"/>
+        <v>402120</v>
+      </c>
+      <c r="T62" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="7">
+        <v>45719</v>
+      </c>
+      <c r="B63" s="3">
+        <f>190900+50000-100000-32000+40000+37800</f>
+        <v>186700</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>800</v>
+      </c>
+      <c r="E63" s="3">
+        <v>400</v>
+      </c>
+      <c r="F63" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G63" s="3">
+        <v>40</v>
+      </c>
+      <c r="H63" s="3">
+        <v>440</v>
+      </c>
+      <c r="I63" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J63" s="4">
+        <f t="shared" si="34"/>
+        <v>403120</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="35"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="L63" s="2">
+        <f t="shared" si="36"/>
+        <v>362474.471023161</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N63" s="2">
+        <f t="shared" si="37"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="O63" s="2">
+        <f t="shared" si="7"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="P63" s="2">
+        <f t="shared" si="38"/>
+        <v>362474.471023161</v>
+      </c>
+      <c r="Q63" s="2">
+        <f t="shared" si="9"/>
+        <v>361575.298392126</v>
+      </c>
+      <c r="R63" s="4">
+        <f t="shared" si="39"/>
+        <v>403120</v>
+      </c>
+      <c r="S63" s="2">
+        <f t="shared" si="11"/>
+        <v>402120</v>
+      </c>
+      <c r="T63" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="7">
+        <v>45720</v>
+      </c>
+      <c r="B64" s="3">
+        <f t="shared" ref="B64:B65" si="41">190900+50000-100000-32000+40000+37800</f>
+        <v>186700</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>800</v>
+      </c>
+      <c r="E64" s="3">
+        <v>400</v>
+      </c>
+      <c r="F64" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G64" s="3">
+        <v>40</v>
+      </c>
+      <c r="H64" s="3">
+        <v>440</v>
+      </c>
+      <c r="I64" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J64" s="4">
+        <f t="shared" ref="J64:J65" si="42">B64+C64*0.92+D64*G64+E64*H64*0.92+F64*I64</f>
+        <v>403120</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" ref="K64:K65" si="43">(J64-M64)/L63</f>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="L64" s="2">
+        <f t="shared" ref="L64:L65" si="44">L63+M64/K64</f>
+        <v>362474.471023161</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64" s="2">
+        <f t="shared" ref="N64:N65" si="45">K64</f>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="O64" s="2">
+        <f t="shared" si="7"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="P64" s="2">
+        <f t="shared" ref="P64:P65" si="46">L64</f>
+        <v>362474.471023161</v>
+      </c>
+      <c r="Q64" s="2">
+        <f t="shared" si="9"/>
+        <v>362474.471023161</v>
+      </c>
+      <c r="R64" s="4">
+        <f t="shared" ref="R64:R65" si="47">J64</f>
+        <v>403120</v>
+      </c>
+      <c r="S64" s="2">
+        <f t="shared" si="11"/>
+        <v>403120</v>
+      </c>
+      <c r="T64" s="9">
+        <f t="shared" ref="T64:T65" si="48">N64/O64-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="7">
+        <v>45721</v>
+      </c>
+      <c r="B65" s="3">
+        <f>190900+50000-100000-32000+40000+37800+53600-240300</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="3">
+        <f>174000-174000</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>42</v>
+      </c>
+      <c r="H65" s="3">
+        <v>435</v>
+      </c>
+      <c r="I65" s="3">
+        <v>4</v>
+      </c>
+      <c r="J65" s="4">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="43"/>
+        <v>1.10457434111109</v>
+      </c>
+      <c r="L65" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
+        <f>-240300-174000*0.92</f>
+        <v>-400380</v>
+      </c>
+      <c r="N65" s="2">
+        <f t="shared" si="45"/>
+        <v>1.10457434111109</v>
+      </c>
+      <c r="O65" s="2">
+        <f t="shared" si="7"/>
+        <v>1.11213349415231</v>
+      </c>
+      <c r="P65" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="2">
+        <f t="shared" si="9"/>
+        <v>362474.471023161</v>
+      </c>
+      <c r="R65" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="2">
+        <f t="shared" si="11"/>
+        <v>403120</v>
+      </c>
+      <c r="T65" s="9">
+        <f t="shared" si="48"/>
+        <v>-0.00679698352847802</v>
       </c>
     </row>
   </sheetData>
@@ -4120,8 +5456,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
